--- a/biology/Botanique/Domaine_de_Mariemont/Domaine_de_Mariemont.xlsx
+++ b/biology/Botanique/Domaine_de_Mariemont/Domaine_de_Mariemont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine royal de Mariemont, situé à Morlanwelz dans la province belge de Hainaut, est issu d'un ancien domaine royal créé au XVIe siècle par Marie de Hongrie. Cédé par son dernier propriétaire, Raoul Warocqué (1870-1917), à l'État belge, le domaine est aujourd'hui un parc public, qui est également arboretum, et dans lequel se trouve entre autres le musée royal de Mariemont.
 </t>
@@ -513,34 +525,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un pavillon de chasse : Marie de Hongrie
-Le domaine de Mariemont doit son nom (le mont de Marie) à sa fondatrice, Marie de Hongrie (1505-1558), sœur de Charles Quint (1500-1558).
+          <t>Un pavillon de chasse : Marie de Hongrie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine de Mariemont doit son nom (le mont de Marie) à sa fondatrice, Marie de Hongrie (1505-1558), sœur de Charles Quint (1500-1558).
 À vingt ans veuve de Louis II de Hongrie, elle est chargée de gouverner les Pays-Bas bourguignons et reçoit le bénéfice viager des villes et terres de Binche.
 Tout en faisant construire à Binche un palais de style Renaissance, sa passion pour la chasse la pousse à édifier un pavillon de chasse en 1546 en lisière des bois de Morlanwelz, sur un coteau dominant La Haine. Elle exproprie les exploitations agricoles sur une superficie de 90 hectares. L'endroit prendra le nom de Mariemont. Elle fait appel à un architecte montois, Jacques Dubroeucq, qui dessine les plans du bâtiment et très probablement des jardins.
-Les travaux du pavillon de chasse commencent le 2 mai 1546, et le chantier est accessible au public en février 1547. Fin 1547, une fausse charpente est dressée au sommet de la construction pour la protéger des pluies de l’hiver. Au printemps, la hauteur totale est de plus ou moins 14 mètres. Présentant l’aspect d’une tour rectangulaire à deux étages entourée d’un fossé et augmentée d’une tourelle, le pavillon comprend au rez-de-chaussée une grande salle, une sallette, une chambre pour la reine, une garde-robe et un petit cabinet. S'y ajoutent une cuisine et une chapelle de petites dimensions. Le premier étage est identique, mis à part deux chambres aménagées au-dessus de la cuisine. Au deuxième et dernier étage, on trouve une sallette, une garde-robe et un cabinet. Deux escaliers en colimaçon sont prévus : le premier, privé, pour la chambre de la reine, le second dans la tourelle conduit à la terrasse à parapet. De nombreuses fenêtres éclairent les appartements : il y a six fenêtres par façade. La déclivité du jardin permet la création d’un grand escalier de treize degrés conduisant au domaine forestier. Une flore diversifiée embellit les espaces verts où coulent de nombreuses fontaines[1]. En 1549, le pavillon de chasse servira de décor aux réjouissances organisées pour Charles Quint lors de la présentation de son fils Philippe II (1527-1598) comme successeur.
-En 1554, le pavillon est incendié par les troupes d'Henri II de France (1519-1559) en guise de représailles pour la destruction de son château de Folembray. Une campagne de restauration est de suite lancée et se termine en 1560. Du Broeucq entreprend sur-le-champ les travaux de restauration. Ils seront achevés en 1560, deux ans après la mort de Marie, qui s’était retirée dans un couvent en Espagne en 1556 lors de l’abdication de son frère. Le domaine reste entretenu mais n’accueille aucun hôte de marque durant près de 40 ans[1].
-Son calme champêtre séduisit non seulement la reine Marie de Hongrie, mais aussi l’infante Isabelle d’Espagne, le Roi-Soleil, le duc Charles de Lorraine… : pendant deux siècles et demi, de 1546 à 1789, Mariemont fut la résidence de campagne des gouverneurs des Pays-Bas bourguignons, espagnols et autrichiens. Et même, pendant dix ans, de 1668 à 1678, des maisons royales de France avant de tomber aux mains de riches industriels[1].
+Les travaux du pavillon de chasse commencent le 2 mai 1546, et le chantier est accessible au public en février 1547. Fin 1547, une fausse charpente est dressée au sommet de la construction pour la protéger des pluies de l’hiver. Au printemps, la hauteur totale est de plus ou moins 14 mètres. Présentant l’aspect d’une tour rectangulaire à deux étages entourée d’un fossé et augmentée d’une tourelle, le pavillon comprend au rez-de-chaussée une grande salle, une sallette, une chambre pour la reine, une garde-robe et un petit cabinet. S'y ajoutent une cuisine et une chapelle de petites dimensions. Le premier étage est identique, mis à part deux chambres aménagées au-dessus de la cuisine. Au deuxième et dernier étage, on trouve une sallette, une garde-robe et un cabinet. Deux escaliers en colimaçon sont prévus : le premier, privé, pour la chambre de la reine, le second dans la tourelle conduit à la terrasse à parapet. De nombreuses fenêtres éclairent les appartements : il y a six fenêtres par façade. La déclivité du jardin permet la création d’un grand escalier de treize degrés conduisant au domaine forestier. Une flore diversifiée embellit les espaces verts où coulent de nombreuses fontaines. En 1549, le pavillon de chasse servira de décor aux réjouissances organisées pour Charles Quint lors de la présentation de son fils Philippe II (1527-1598) comme successeur.
+En 1554, le pavillon est incendié par les troupes d'Henri II de France (1519-1559) en guise de représailles pour la destruction de son château de Folembray. Une campagne de restauration est de suite lancée et se termine en 1560. Du Broeucq entreprend sur-le-champ les travaux de restauration. Ils seront achevés en 1560, deux ans après la mort de Marie, qui s’était retirée dans un couvent en Espagne en 1556 lors de l’abdication de son frère. Le domaine reste entretenu mais n’accueille aucun hôte de marque durant près de 40 ans.
+Son calme champêtre séduisit non seulement la reine Marie de Hongrie, mais aussi l’infante Isabelle d’Espagne, le Roi-Soleil, le duc Charles de Lorraine… : pendant deux siècles et demi, de 1546 à 1789, Mariemont fut la résidence de campagne des gouverneurs des Pays-Bas bourguignons, espagnols et autrichiens. Et même, pendant dix ans, de 1668 à 1678, des maisons royales de France avant de tomber aux mains de riches industriels.
 L’homme d’affaires Raoul Warocqué, qui a fait fortune dans le charbonnage, réussit le pari de réunir en peu d’années un ensemble prestigieux d’œuvres d’art qu’il destina au musée.
-Premier château : Albert et Isabelle d’Autriche (1598-1621)
-Les archiducs d'Autriche Albert et Isabelle, eux aussi passionnés de chasse, sont séduits par Mariemont et en font une résidence royale. De grands travaux sont dirigés par l’architecte Wenceslas Cobergher. On assèche et restaure les bâtiments et on agrandit : quatre pavillons d’angle sont ajoutés au corps central, de même que des communs afin d'accueillir la cour. On peut désormais réellement parler d’un château à Mariemont.
-C’est aussi une période faste pour le jardin qui est confié aux soins de l’architecte Pierre Lepoivre (nl). L’objectif est d’évoquer ceux d’Aranjuez où l’archiduchesse a passé son enfance. Cette influence se lit notamment dans le développement des jeux d’eau. Le domaine est également élargi : il atteint une superficie de 500 hectares. Cette grande époque se termine avec la mort d’Isabelle en 1633.
-Période française
-De 1668 à 1678, le domaine de Mariemont est français. Le traité d’Aix-la-Chapelle en fait une possession de Louis XIV. Mais cela ne s’est pas fait sans peine : la reine régente d’Espagne est réticente à l’idée d’inclure Mariemont dans ce transfert de propriétés. Louis XIV s’en empare par la force le 27 octobre 1668 et en fait une de ses maisons royales : il y séjourne au moins deux fois, en 1670 et 1675. Son attachement à cette terre est illustré par un épisode de la tapisserie dite tenture des Mois ou des Maisons Royales où le mois d’août est figuré par une partie de chasse à Mariemont.
-Période espagnole
-En 1678, le domaine repasse à l’Espagne. Maximilien-Emmanuel de Bavière entame une série de travaux et d’agrandissements dans les années 1690. La galerie qui relie le château aux communs est d’ailleurs baptisée à cette occasion « quartier de Bavière ».
-Ces attentions sont de courte durée : l’édifice est de nouveau abandonné à la suite des troubles causés par la succession des gouverneurs dans les provinces des Pays-Bas méridionaux, certains se désintéressant de leurs possessions. Les avoirs du domaine sont mis à mal par les intempéries, le braconnage et le pillage par la population avoisinante.
-Période autrichienne
-En 1714, par le traité de Rastadt, les Pays-Bas méridionaux passent à la maison d’Autriche et c’est, à partir de 1725, l’archiduchesse Marie-Élisabeth d'Autriche qui les gouverne. Très pieuse, elle fait construire une chapelle à Mariemont en 1739. L'architecte en est Jean-André Anneessens (nl).
-Elle élabore aussi un projet destiné à mettre en valeur les eaux de Mariemont. Celles-ci ont toujours eu une certaine renommée et leurs vertus sont cautionnées par les scientifiques de l’époque. L’objectif final est de concurrencer les eaux de Spa.
-Quelques aménagements sont réalisés dans ce sens : le domaine est agrandi de quelques hectares pour englober la fontaine minérale de Haine-Saint-Pierre qui est reliée par une allée au château. Ce projet tournera à rien : personne ne s'y intéresse après le décès de l’archiduchesse survenu un an plus tard.
-Deuxième château : Charles de Lorraine
-En 1754, le nouveau gouverneur des Pays-Bas autrichiens, Charles-Alexandre de Lorraine, décide de raser le château pour en construire un autre totalement neuf et au goût du jour. Les plans sont conçus par l’architecte Jean-Nicolas Jadot. L’édifice est encore remanié entre 1766 et 1774 par l'architecte Laurent-Benoît Dewez.
-Les jardins sont eux aussi totalement transformés en un jardin à la française. C’est à cette époque qu’est construite l’orangerie. De grandes fêtes sont organisées à Mariemont.
-Le nouveau château est incendié au cours des combats qui précèdent l’annexion des Pays-Bas autrichiens à la jeune république française en 1794. D'autres graves dégâts et pertes sont une fois de plus causés par un pillage systématique par les habitants des environs.
-Château bourgeois : les Warocqué
-À la fin du XVIIIe siècle, le domaine de Mariemont est mis en vente parmi une série de biens confisqués par l’État français. Le château est en ruines.
-L’ensemble des terres est acheté par deux frères, Isidore et Nicolas Warocqué (1773-1838), industriels de la région. Aidés de trois actionnaires, ils envisagent d’exploiter les gisements de charbon présents sur le site et fondent en 1802 la « Société minière du parc de Mariemont ». Administrateur habile, Nicolas s’enrichit rapidement.
-En 1829, il achète à son compte la forêt de Mariemont pour en faire son domaine privé et y construire son château. De style néo-classique et composé d’un corps de logis unique, il est dessiné par le futur architecte de Léopold Ier, Tilman-François Suys.
 </t>
         </is>
       </c>
@@ -566,10 +563,242 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Origine et histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Premier château : Albert et Isabelle d’Autriche (1598-1621)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les archiducs d'Autriche Albert et Isabelle, eux aussi passionnés de chasse, sont séduits par Mariemont et en font une résidence royale. De grands travaux sont dirigés par l’architecte Wenceslas Cobergher. On assèche et restaure les bâtiments et on agrandit : quatre pavillons d’angle sont ajoutés au corps central, de même que des communs afin d'accueillir la cour. On peut désormais réellement parler d’un château à Mariemont.
+C’est aussi une période faste pour le jardin qui est confié aux soins de l’architecte Pierre Lepoivre (nl). L’objectif est d’évoquer ceux d’Aranjuez où l’archiduchesse a passé son enfance. Cette influence se lit notamment dans le développement des jeux d’eau. Le domaine est également élargi : il atteint une superficie de 500 hectares. Cette grande époque se termine avec la mort d’Isabelle en 1633.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Origine et histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période française</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1668 à 1678, le domaine de Mariemont est français. Le traité d’Aix-la-Chapelle en fait une possession de Louis XIV. Mais cela ne s’est pas fait sans peine : la reine régente d’Espagne est réticente à l’idée d’inclure Mariemont dans ce transfert de propriétés. Louis XIV s’en empare par la force le 27 octobre 1668 et en fait une de ses maisons royales : il y séjourne au moins deux fois, en 1670 et 1675. Son attachement à cette terre est illustré par un épisode de la tapisserie dite tenture des Mois ou des Maisons Royales où le mois d’août est figuré par une partie de chasse à Mariemont.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Origine et histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période espagnole</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1678, le domaine repasse à l’Espagne. Maximilien-Emmanuel de Bavière entame une série de travaux et d’agrandissements dans les années 1690. La galerie qui relie le château aux communs est d’ailleurs baptisée à cette occasion « quartier de Bavière ».
+Ces attentions sont de courte durée : l’édifice est de nouveau abandonné à la suite des troubles causés par la succession des gouverneurs dans les provinces des Pays-Bas méridionaux, certains se désintéressant de leurs possessions. Les avoirs du domaine sont mis à mal par les intempéries, le braconnage et le pillage par la population avoisinante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Origine et histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période autrichienne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1714, par le traité de Rastadt, les Pays-Bas méridionaux passent à la maison d’Autriche et c’est, à partir de 1725, l’archiduchesse Marie-Élisabeth d'Autriche qui les gouverne. Très pieuse, elle fait construire une chapelle à Mariemont en 1739. L'architecte en est Jean-André Anneessens (nl).
+Elle élabore aussi un projet destiné à mettre en valeur les eaux de Mariemont. Celles-ci ont toujours eu une certaine renommée et leurs vertus sont cautionnées par les scientifiques de l’époque. L’objectif final est de concurrencer les eaux de Spa.
+Quelques aménagements sont réalisés dans ce sens : le domaine est agrandi de quelques hectares pour englober la fontaine minérale de Haine-Saint-Pierre qui est reliée par une allée au château. Ce projet tournera à rien : personne ne s'y intéresse après le décès de l’archiduchesse survenu un an plus tard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Origine et histoire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Deuxième château : Charles de Lorraine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1754, le nouveau gouverneur des Pays-Bas autrichiens, Charles-Alexandre de Lorraine, décide de raser le château pour en construire un autre totalement neuf et au goût du jour. Les plans sont conçus par l’architecte Jean-Nicolas Jadot. L’édifice est encore remanié entre 1766 et 1774 par l'architecte Laurent-Benoît Dewez.
+Les jardins sont eux aussi totalement transformés en un jardin à la française. C’est à cette époque qu’est construite l’orangerie. De grandes fêtes sont organisées à Mariemont.
+Le nouveau château est incendié au cours des combats qui précèdent l’annexion des Pays-Bas autrichiens à la jeune république française en 1794. D'autres graves dégâts et pertes sont une fois de plus causés par un pillage systématique par les habitants des environs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Origine et histoire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Château bourgeois : les Warocqué</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin du XVIIIe siècle, le domaine de Mariemont est mis en vente parmi une série de biens confisqués par l’État français. Le château est en ruines.
+L’ensemble des terres est acheté par deux frères, Isidore et Nicolas Warocqué (1773-1838), industriels de la région. Aidés de trois actionnaires, ils envisagent d’exploiter les gisements de charbon présents sur le site et fondent en 1802 la « Société minière du parc de Mariemont ». Administrateur habile, Nicolas s’enrichit rapidement.
+En 1829, il achète à son compte la forêt de Mariemont pour en faire son domaine privé et y construire son château. De style néo-classique et composé d’un corps de logis unique, il est dessiné par le futur architecte de Léopold Ier, Tilman-François Suys.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>La Dynastie des Warocqué</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Nicolas Warocqué est le fondateur de ce qu’on a coutume d’appeler « la dynastie Warocqué » ou la dynastie des « maîtres du charbon ». Grands promoteurs immobiliers, ils participent à la vie politique de la région (ils sont bourgmestres de Morlanwelz de père en fils pendant plus de cent ans), fondent écoles, crèches et internats, sont mécènes de la recherche scientifique et côtoient la famille royale. Ils envisagent conjointement la gestion de leur société et des habitants de leur commune sur le modèle des grands industriels de l’époque.
 Abel Warocqué (1805-1864) succède à Nicolas en 1827. Il embellit le château et se préoccupe particulièrement du parc. C’est de cette époque en effet que date son aménagement « à l’anglaise », toujours d’actualité. Abel fait comme son père preuve de philanthropie. C’est aussi lui qui met au point la warocquère, machine facilitant les montées et descentes des ouvriers dans la mine.
@@ -581,31 +810,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Domaine_de_Mariemont</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Raoul Warocqué, le collectionneur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Guidé par ses intuitions artistiques autant qu’épaulé par des spécialistes (on pense à Franz Cumont pour l’Antiquité classique ou à George Van der Meylen dans le domaine de la bibliophilie par exemple) Raoul Warocqué (1870-1917) constitue en très peu de temps une collection remarquable. Il complète certains ensembles initiés par ses prédécesseurs tels que la collection de dentelles de sa mère ou les autographes collectionnés par l’épouse d’Abel.
 Les Warocqué possédaient sans doute des objets décoratifs et quelques services de porcelaine, mais Raoul rassemble en son château la collection la plus complète sur le sujet.
@@ -620,101 +851,107 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Domaine_de_Mariemont</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Le domaine aujourd’hui</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bâtiment construit par Roger Bastin abrite le Musée royal de Mariemont et sa bibliothèque ainsi que le Cercle royal des Amis de Mariemont[2]. L’atelier du livre du musée est installé dans la conciergerie du domaine.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bâtiment construit par Roger Bastin abrite le Musée royal de Mariemont et sa bibliothèque ainsi que le Cercle royal des Amis de Mariemont. L’atelier du livre du musée est installé dans la conciergerie du domaine.
 Les locaux des anciennes écuries de l’époque des Warocqué sont utilisés par l’Athénée provincial Warocqué de Morlanwelz-Mariemont-Chapelle, sections horticulture, entreprise de parcs &amp; jardins et fleuristerie depuis les années 1920.
 Dans l’ancienne habitation, restaurée et agrandie, du personnel du haras et des jardins se trouve aujourd’hui le CRIE de Mariemont. Le Centre Régional d'Initiation à l'Environnement de Mariemont propose un ensemble d'activités à la découverte de la Nature et de l'Environnement pour des publics très variés.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Domaine_de_Mariemont</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Le parc</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de Mariemont, qui s’étend sur 45 hectares, est entièrement entouré de murs. On y accède par cinq grilles, dont la principale, au nord, est entourée de deux pavillons qui servent de conciergerie. Cette entrée est précédée par une magnifique allée composée de hêtres, la drève de Mariemont, d’une longueur d’un kilomètre. Le centre du parc fut dessiné en 1832 par Charles-Henri Petersen, et ces disciples Louis Fuchs et Édouard Keilig vont poursuivre l’œuvre de leur illustre prédécesseur jusqu’à la fin du 19e siècle[3]. Les agrandissements ultérieurs en respectent le style. De multiples pelouses et étangs permettent aux visiteurs de flâner. Le site boisé est composé d’une grande variété d’arbres dont de nombreux d’origine exotique qui constitue le plus bel arboretum de Wallonie[4].
-Mais les atouts du parc de Mariemont ne sont pas uniquement d’aspect végétal. Raoul Warocqué l’a enjolivé de multiples statues et sculptures, dont certaines réalisées par des artistes célèbres tels que Jef Lambeaux (L'Abondance, Le Triomphe de la Femme, La Source, La Séduction et La Joie - fragments du bas-relief des Passions humaines), Auguste Rodin[5] (Les Bourgeois de Calais), Constantin Meunier (Semeur) ou encore Victor Rousseau (Vers la vie)[6].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de Mariemont, qui s’étend sur 45 hectares, est entièrement entouré de murs. On y accède par cinq grilles, dont la principale, au nord, est entourée de deux pavillons qui servent de conciergerie. Cette entrée est précédée par une magnifique allée composée de hêtres, la drève de Mariemont, d’une longueur d’un kilomètre. Le centre du parc fut dessiné en 1832 par Charles-Henri Petersen, et ces disciples Louis Fuchs et Édouard Keilig vont poursuivre l’œuvre de leur illustre prédécesseur jusqu’à la fin du 19e siècle. Les agrandissements ultérieurs en respectent le style. De multiples pelouses et étangs permettent aux visiteurs de flâner. Le site boisé est composé d’une grande variété d’arbres dont de nombreux d’origine exotique qui constitue le plus bel arboretum de Wallonie.
+Mais les atouts du parc de Mariemont ne sont pas uniquement d’aspect végétal. Raoul Warocqué l’a enjolivé de multiples statues et sculptures, dont certaines réalisées par des artistes célèbres tels que Jef Lambeaux (L'Abondance, Le Triomphe de la Femme, La Source, La Séduction et La Joie - fragments du bas-relief des Passions humaines), Auguste Rodin (Les Bourgeois de Calais), Constantin Meunier (Semeur) ou encore Victor Rousseau (Vers la vie).
 Lorsque l’on se promène dans le parc, on peut apercevoir les ruines du château bâti pour Charles de Lorraine. Il ne reste par contre aucun vestige du pavillon de chasse de Marie de Hongrie.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Domaine_de_Mariemont</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_de_Mariemont</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Le musée</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné d’art et de civilisation, Raoul Warocqué a consacré une bonne partie de sa fortune à acheter de nombreuses œuvres connues. Au début du xxe siècle, il décide de léguer ses collections à l’État belge. En 1920, trois ans après sa mort, le musée royal de Mariemont ouvre ses portes.
-Le 25 décembre 1960, un violent incendie ravage une bonne partie du musée, mais les collections n’ont que très peu souffert étant donné que la plupart d’entre elles se trouvaient dans des locaux en béton. Une nouvelle construction voit alors le jour, les plans de laquelle furent confiés à l’architecte Roger Bastin[4].
-Les collections rassemblées sont actuellement présentées dans un musée inauguré en 1975. Ce bâtiment d’aspect contemporain crée un climat propice à l’observation et à la rêverie. La qualité et la diversité des œuvres présentées en font l’un des premiers musées de Wallonie[4].
+Le 25 décembre 1960, un violent incendie ravage une bonne partie du musée, mais les collections n’ont que très peu souffert étant donné que la plupart d’entre elles se trouvaient dans des locaux en béton. Une nouvelle construction voit alors le jour, les plans de laquelle furent confiés à l’architecte Roger Bastin.
+Les collections rassemblées sont actuellement présentées dans un musée inauguré en 1975. Ce bâtiment d’aspect contemporain crée un climat propice à l’observation et à la rêverie. La qualité et la diversité des œuvres présentées en font l’un des premiers musées de Wallonie.
 </t>
         </is>
       </c>
